--- a/utility/optbs/template/buku_pengeluaran_barang.xlsx
+++ b/utility/optbs/template/buku_pengeluaran_barang.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
-    <t>BUKU PENGELUARAN BARANG</t>
+    <t>BUKU PENGELUARAN BARANG PERSEDIAAN</t>
   </si>
   <si>
     <t>SKPD</t>
@@ -100,22 +100,34 @@
     <t>Kota Pekalongan, [b.tanggal_cetak]</t>
   </si>
   <si>
-    <t>ATASAN LANGSUNG,</t>
+    <t>Mengetahui</t>
   </si>
   <si>
-    <t>PENYIMPAN BARANG,</t>
+    <t>An Pengguna / Kuasa Pengguna Barang</t>
   </si>
   <si>
-    <t>(Kasubbag. Umum / Keuangan / Sekretaris Kelurahan)</t>
+    <t>Pengurus Barang</t>
+  </si>
+  <si>
+    <t>Pembantu Pengurus Barang</t>
+  </si>
+  <si>
+    <t>Pejabat Penatausahaan Pengguna Barang</t>
   </si>
   <si>
     <t>([b.nama_atasan])</t>
+  </si>
+  <si>
+    <t>……………………………………</t>
   </si>
   <si>
     <t>([b.nama_penyimpan_barang])</t>
   </si>
   <si>
     <t>NIP. [b.nip_atasan]</t>
+  </si>
+  <si>
+    <t>NIP ………………………………</t>
   </si>
   <si>
     <t>NIP. [b.nip_penyimpan_barang]</t>
@@ -221,7 +233,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -282,6 +294,34 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -301,24 +341,24 @@
   </sheetPr>
   <dimension ref="1:22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1020" min="11" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1020" min="11" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="7.83163265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10642,6 +10682,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12"/>
@@ -10650,15 +10691,20 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="0"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
@@ -10666,138 +10712,150 @@
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
-      <c r="I14" s="14" t="s">
-        <v>25</v>
-      </c>
+      <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
       <c r="L14" s="14"/>
+      <c r="M14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B15" s="14"/>
       <c r="C15" s="0"/>
-      <c r="D15" s="14" t="s">
-        <v>26</v>
+      <c r="D15" s="0"/>
+      <c r="E15" s="3" t="s">
+        <v>28</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="14" t="s">
-        <v>27</v>
+      <c r="F15" s="0"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>29</v>
       </c>
-      <c r="J15" s="14"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
       <c r="K15" s="0"/>
       <c r="L15" s="14"/>
+      <c r="M15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="B16" s="14"/>
       <c r="C16" s="0"/>
-      <c r="D16" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
       <c r="K16" s="0"/>
       <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
       <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
       <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
       <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
       <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="14" t="s">
-        <v>29</v>
+      <c r="A21" s="16" t="s">
+        <v>31</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
-      <c r="I21" s="14" t="s">
-        <v>30</v>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="16" t="s">
+        <v>32</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="14"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="14" t="s">
-        <v>31</v>
+      <c r="A22" s="4" t="s">
+        <v>34</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="14" t="s">
-        <v>32</v>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="4" t="s">
+        <v>35</v>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="14"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="17">

--- a/utility/optbs/template/buku_pengeluaran_barang.xlsx
+++ b/utility/optbs/template/buku_pengeluaran_barang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>BUKU PENGELUARAN BARANG PERSEDIAAN</t>
   </si>
@@ -52,6 +52,9 @@
     <t>Nomor Urut</t>
   </si>
   <si>
+    <t>Nomor</t>
+  </si>
+  <si>
     <t>Nama Barang</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>Ket</t>
   </si>
   <si>
+    <t>Dokumen</t>
+  </si>
+  <si>
     <t>[a.no;block=row]</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
   </si>
   <si>
     <t>[a.no]</t>
+  </si>
+  <si>
+    <t>[a.no_dok]</t>
   </si>
   <si>
     <t>[a.nm_brg]</t>
@@ -95,6 +104,12 @@
   </si>
   <si>
     <t>[a.keterangan]</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>[b.grand_total;ope=tbs:num]</t>
   </si>
   <si>
     <t>Kota Pekalongan, [b.tanggal_cetak]</t>
@@ -141,7 +156,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -183,6 +198,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -192,7 +214,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -202,6 +224,41 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
@@ -233,7 +290,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -262,8 +319,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -271,15 +340,59 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -339,26 +452,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:22"/>
+  <dimension ref="1:23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.0714285714286"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1020" min="11" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1021" min="12" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="6.88265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -374,7 +487,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="0"/>
+      <c r="K1" s="2"/>
       <c r="L1" s="0"/>
       <c r="M1" s="0"/>
       <c r="N1" s="0"/>
@@ -1384,6 +1497,7 @@
       <c r="AMD1" s="0"/>
       <c r="AME1" s="0"/>
       <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
@@ -2406,8 +2520,9 @@
       <c r="AMD2" s="0"/>
       <c r="AME2" s="0"/>
       <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -3428,6 +3543,7 @@
       <c r="AMD3" s="0"/>
       <c r="AME3" s="0"/>
       <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -3439,7 +3555,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="0"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
@@ -4454,6 +4570,7 @@
       <c r="AMD4" s="0"/>
       <c r="AME4" s="0"/>
       <c r="AMF4" s="0"/>
+      <c r="AMG4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
@@ -4465,7 +4582,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="0"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
@@ -5480,6 +5597,7 @@
       <c r="AMD5" s="0"/>
       <c r="AME5" s="0"/>
       <c r="AMF5" s="0"/>
+      <c r="AMG5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
@@ -5491,7 +5609,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="0"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
@@ -6506,6 +6624,7 @@
       <c r="AMD6" s="0"/>
       <c r="AME6" s="0"/>
       <c r="AMF6" s="0"/>
+      <c r="AMG6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
@@ -7528,6 +7647,7 @@
       <c r="AMD7" s="0"/>
       <c r="AME7" s="0"/>
       <c r="AMF7" s="0"/>
+      <c r="AMG7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
@@ -7539,28 +7659,30 @@
       <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="0"/>
+      <c r="K8" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
@@ -8570,19 +8692,22 @@
       <c r="AMD8" s="0"/>
       <c r="AME8" s="0"/>
       <c r="AMF8" s="0"/>
+      <c r="AMG8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="0"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
@@ -9592,39 +9717,42 @@
       <c r="AMD9" s="0"/>
       <c r="AME9" s="0"/>
       <c r="AMF9" s="0"/>
+      <c r="AMG9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="H10" s="7" t="n">
+      <c r="H10" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="I10" s="7" t="n">
+      <c r="I10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="J10" s="7" t="n">
+      <c r="J10" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="K10" s="0"/>
+      <c r="K10" s="10" t="n">
+        <v>11</v>
+      </c>
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
@@ -10634,252 +10762,286 @@
       <c r="AMD10" s="0"/>
       <c r="AME10" s="0"/>
       <c r="AMF10" s="0"/>
+      <c r="AMG10" s="0"/>
     </row>
-    <row r="11" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="8" t="s">
+    <row r="11" s="16" customFormat="true" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="E11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="F11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>18</v>
+      <c r="G11" s="14" t="s">
+        <v>25</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="AMG11" s="0"/>
+      <c r="H11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="15"/>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="0"/>
+    <row r="12" customFormat="false" ht="30.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="3" t="s">
-        <v>25</v>
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
+      <c r="N13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="3" t="s">
+        <v>30</v>
       </c>
-      <c r="I13" s="0"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
       <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="0"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>27</v>
+      <c r="A15" s="1" t="s">
+        <v>31</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="0"/>
-      <c r="E15" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="E15" s="0"/>
       <c r="F15" s="0"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="0"/>
       <c r="D16" s="0"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="3"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="0"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="0"/>
+      <c r="I16" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
-      <c r="B17" s="0"/>
+      <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="28"/>
       <c r="C17" s="0"/>
       <c r="D17" s="0"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
-      <c r="M17" s="0"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
       <c r="D18" s="0"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
       <c r="D19" s="0"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
       <c r="D20" s="0"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="0"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
       <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="0"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="0"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
       <c r="J21" s="0"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="19"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="0"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
+      <c r="A22" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="0"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="0"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30" t="s">
+        <v>38</v>
+      </c>
       <c r="J22" s="0"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="20"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="33"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="0"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C4:F4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C5:F5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.440277777777778" right="0.440277777777778" top="0.705555555555555" bottom="0.705555555555555" header="0.440277777777778" footer="0.440277777777778"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
